--- a/상권_210420/station_상권(비율) 및 용도지역.xlsx
+++ b/상권_210420/station_상권(비율) 및 용도지역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nyp\PYDATAexam\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0779C765-A270-41F9-A12A-1AE0A3BFD906}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545FB507-0E8F-47F8-9A68-89E6FC54F92E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="414">
   <si>
     <t>측정소명</t>
   </si>
@@ -1326,6 +1326,13 @@
   </si>
   <si>
     <t>강남구 밤고개로 337 (세곡사거리)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관악산</t>
+  </si>
+  <si>
+    <t>과천시 자하동길 64 (관악산 중계소)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1735,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3780,6 +3787,50 @@
         <v>76</v>
       </c>
     </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46">
+        <v>37.443314709689297</v>
+      </c>
+      <c r="D46">
+        <v>126.96710073882601</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3789,10 +3840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B57C940-4542-4AA1-BCB0-2102A3F72C86}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5915,6 +5966,53 @@
         <v>76</v>
       </c>
     </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46">
+        <v>37.443314709689297</v>
+      </c>
+      <c r="D46">
+        <v>126.96710073882601</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5924,10 +6022,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CF994F-01B0-41BD-AC72-DE8519A2B5B5}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="E1" sqref="E1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8050,6 +8148,53 @@
         <v>76</v>
       </c>
     </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46">
+        <v>37.443314709689297</v>
+      </c>
+      <c r="D46">
+        <v>126.96710073882601</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8059,10 +8204,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B951F6A8-1EA3-4886-B5F5-38DE944226B9}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10185,6 +10330,53 @@
         <v>76</v>
       </c>
     </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46">
+        <v>37.443314709689297</v>
+      </c>
+      <c r="D46">
+        <v>126.96710073882601</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10193,10 +10385,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E659F51-175A-4DE3-9766-3385DFFCB9CC}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12184,6 +12376,50 @@
         <v>76</v>
       </c>
     </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46">
+        <v>37.443314709689297</v>
+      </c>
+      <c r="D46">
+        <v>126.96710073882601</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12192,10 +12428,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4DD5AF-F86C-49FA-B8E8-ECF9D7910A5F}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -14180,6 +14416,50 @@
         <v>65</v>
       </c>
       <c r="N45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46">
+        <v>37.443314709689297</v>
+      </c>
+      <c r="D46">
+        <v>126.96710073882601</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
         <v>76</v>
       </c>
     </row>
@@ -15681,14 +15961,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A201:A224"/>
-    <mergeCell ref="A225:A239"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="A162:A171"/>
-    <mergeCell ref="A172:A185"/>
-    <mergeCell ref="A186:A192"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A197:A200"/>
     <mergeCell ref="A154:A158"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A17"/>
@@ -15701,6 +15973,14 @@
     <mergeCell ref="A104:A108"/>
     <mergeCell ref="A109:A127"/>
     <mergeCell ref="A128:A153"/>
+    <mergeCell ref="A201:A224"/>
+    <mergeCell ref="A225:A239"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="A162:A171"/>
+    <mergeCell ref="A172:A185"/>
+    <mergeCell ref="A186:A192"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A197:A200"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
